--- a/database.xlsx
+++ b/database.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,9 +24,80 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>Öğrenci</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Ad</t>
+  </si>
+  <si>
+    <t>Soyad</t>
+  </si>
+  <si>
+    <t>Numara</t>
+  </si>
+  <si>
+    <t>Tc Kimlik</t>
+  </si>
+  <si>
+    <t>Cinsiyet</t>
+  </si>
+  <si>
+    <t>D. Tarihi</t>
+  </si>
+  <si>
+    <t>Ahmet</t>
+  </si>
+  <si>
+    <t>Yılmaz</t>
+  </si>
+  <si>
+    <t>Erkek</t>
+  </si>
+  <si>
+    <t>Sena</t>
+  </si>
+  <si>
+    <t>Turan</t>
+  </si>
+  <si>
+    <t>Kız</t>
+  </si>
+  <si>
+    <t>05.12.2004</t>
+  </si>
+  <si>
+    <t>01.01.2005</t>
+  </si>
+  <si>
+    <t>Aşağıdakilerden hangisi Fransa'nın başkentidir?</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>Londra</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,13 +105,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -54,8 +138,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -71,6 +159,426 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" firstButton="1" fmlaLink="$H$2" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>9526</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9526</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Option Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="tr-TR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t> Düğmesi 1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9526</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="219075" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2050" name="Option Button 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2050"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="tr-TR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t> Düğmesi 1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>9526</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="219075" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2051" name="Option Button 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2051"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="tr-TR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t> Düğmesi 1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>9526</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="219075" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2052" name="Option Button 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2052"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="tr-TR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t> Düğmesi 1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>9526</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="219075" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2053" name="Option Button 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2053"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="tr-TR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t> Düğmesi 1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,14 +844,271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>11111111111</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>101</v>
+      </c>
+      <c r="E4">
+        <v>11111111112</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="14.42578125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f>IF(H2=I2,"DOĞRU CEVAP",IF(I2="","","YANLIŞ CEVAP"))</f>
+        <v>DOĞRU CEVAP</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2049" r:id="rId4" name="Option Button 1">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2050" r:id="rId5" name="Option Button 2">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2051" r:id="rId6" name="Option Button 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2052" r:id="rId7" name="Option Button 4">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2053" r:id="rId8" name="Option Button 5">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>Öğrenci</t>
   </si>
@@ -91,6 +91,57 @@
   </si>
   <si>
     <t>Londra</t>
+  </si>
+  <si>
+    <t>Şube</t>
+  </si>
+  <si>
+    <t>10/A</t>
+  </si>
+  <si>
+    <t>11/B</t>
+  </si>
+  <si>
+    <t>Çınar</t>
+  </si>
+  <si>
+    <t>Mehmet</t>
+  </si>
+  <si>
+    <t>12/B</t>
+  </si>
+  <si>
+    <t>9/C</t>
+  </si>
+  <si>
+    <t>06.12.2004</t>
+  </si>
+  <si>
+    <t>11.12.2004</t>
+  </si>
+  <si>
+    <t>Öğretmen</t>
+  </si>
+  <si>
+    <t>Volkan</t>
+  </si>
+  <si>
+    <t>Aslan</t>
+  </si>
+  <si>
+    <t>Branş</t>
+  </si>
+  <si>
+    <t>Bilişim</t>
+  </si>
+  <si>
+    <t>Matematik</t>
+  </si>
+  <si>
+    <t>Fen</t>
+  </si>
+  <si>
+    <t>Kimya</t>
   </si>
 </sst>
 </file>
@@ -112,7 +163,7 @@
       <charset val="162"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +173,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -138,12 +195,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -844,48 +902,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -907,8 +970,11 @@
       <c r="G3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -929,6 +995,196 @@
       </c>
       <c r="G4" t="s">
         <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>102</v>
+      </c>
+      <c r="E5">
+        <v>11111111113</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6">
+        <v>103</v>
+      </c>
+      <c r="E6">
+        <v>11111111114</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>11111111111</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>11111111112</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>11111111113</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>11111111114</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
   <si>
     <t>Öğrenci</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Şube</t>
   </si>
   <si>
-    <t>10/A</t>
-  </si>
-  <si>
     <t>11/B</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>12/B</t>
   </si>
   <si>
-    <t>9/C</t>
-  </si>
-  <si>
     <t>06.12.2004</t>
   </si>
   <si>
@@ -141,7 +135,22 @@
     <t>Fen</t>
   </si>
   <si>
-    <t>Kimya</t>
+    <t>Şube Adı</t>
+  </si>
+  <si>
+    <t>11/A</t>
+  </si>
+  <si>
+    <t>12/A</t>
+  </si>
+  <si>
+    <t>Edebiyat</t>
+  </si>
+  <si>
+    <t>Ders</t>
+  </si>
+  <si>
+    <t>Programlama Temelleri</t>
   </si>
 </sst>
 </file>
@@ -195,13 +204,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -902,17 +912,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" customWidth="1"/>
   </cols>
@@ -970,8 +982,8 @@
       <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
-        <v>23</v>
+      <c r="H3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -996,8 +1008,8 @@
       <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" t="s">
-        <v>24</v>
+      <c r="H4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1005,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1020,10 +1032,10 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
         <v>27</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1031,10 +1043,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>103</v>
@@ -1046,15 +1058,15 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
         <v>28</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1080,7 +1092,7 @@
         <v>22</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1088,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -1102,11 +1114,11 @@
       <c r="F10" t="s">
         <v>15</v>
       </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" t="s">
-        <v>35</v>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1114,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -1128,11 +1140,11 @@
       <c r="F11" t="s">
         <v>14</v>
       </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" t="s">
-        <v>36</v>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1140,7 +1152,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -1152,13 +1164,13 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
         <v>27</v>
       </c>
-      <c r="H12" t="s">
-        <v>37</v>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1166,7 +1178,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -1178,13 +1190,150 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
         <v>28</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
   <si>
     <t>Öğrenci</t>
   </si>
@@ -151,6 +151,21 @@
   </si>
   <si>
     <t>Programlama Temelleri</t>
+  </si>
+  <si>
+    <t>Şube Id</t>
+  </si>
+  <si>
+    <t>Branş Id</t>
+  </si>
+  <si>
+    <t>Şube-Öğretmen</t>
+  </si>
+  <si>
+    <t>Öğretmen Id</t>
+  </si>
+  <si>
+    <t>Ders Id</t>
   </si>
 </sst>
 </file>
@@ -914,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,7 +972,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1089,10 +1104,10 @@
         <v>7</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1203,6 +1218,9 @@
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -1213,45 +1231,87 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>1</v>
       </c>
@@ -1259,7 +1319,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1267,7 +1327,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1275,7 +1335,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -1283,7 +1343,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1291,12 +1351,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>1</v>
       </c>
@@ -1304,7 +1364,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1312,7 +1372,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
